--- a/biology/Botanique/Nolina_recurvata/Nolina_recurvata.xlsx
+++ b/biology/Botanique/Nolina_recurvata/Nolina_recurvata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucarnea recurvata, le Beaucarnéa, Arbre bouteille ou Pied d'éléphant est une espèce de la famille des Ruscaceae. Elle est souvent cultivée comme plante d'appartement dans les régions tempérées. Mais en pot sa croissance est lente. On l'appelle parfois arbre bouteille à cause de la base de son tronc renflée.
 Comme la plupart des plantes succulentes, Beaucarnea a besoin d'une exposition ensoleillée et d'un sol bien drainé pour éviter les risques de pourriture.
@@ -515,7 +527,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nolina recurvata </t>
         </is>
